--- a/biology/Microbiologie/Enterobacterales/Enterobacterales.xlsx
+++ b/biology/Microbiologie/Enterobacterales/Enterobacterales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Enterobacterales sont un ordre de bactéries Gram-négatives, non sporulées, anaérobies facultatives, en forme de bâtonnet, appartenant à la classe des gammaprotéobactéries. Le genre type de cet ordre est Enterobacter.
 L'ordre est constitué de familles et parmi elle les Enterobacteriaceae dont la définition change car de nouvelles familles accueillent aujourd'hui des bactéries classées auparavant parmi les Enterobactéries.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre a été nommé d'après son genre type : En.te.ro.bac.te.ra’les.. N.L. masc. n. Enterobacter genre type de la famille Enterobacteriaceae et de l'ordre; suff. -ales pour nommer un ordre; N.L. pl. n. Enterobacterales l'ordre dont le genre type est Enterobacter[3]. C'est donc le genre type Enterobacter qui donne son nom à l'ordre en lui adjoignant le suffixe -ales utilisée en Classification scientifique des espèces et en nomenclature bactérienne pour désigner un ordre bactérien[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre a été nommé d'après son genre type : En.te.ro.bac.te.ra’les.. N.L. masc. n. Enterobacter genre type de la famille Enterobacteriaceae et de l'ordre; suff. -ales pour nommer un ordre; N.L. pl. n. Enterobacterales l'ordre dont le genre type est Enterobacter. C'est donc le genre type Enterobacter qui donne son nom à l'ordre en lui adjoignant le suffixe -ales utilisée en Classification scientifique des espèces et en nomenclature bactérienne pour désigner un ordre bactérien.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2016, les bactéries de l'ordre des Enterobacterales sont des bactéries Gram-négatives, anaérobies facultatives, non-sporulantes[4]. Ces bactéries ont la forme de bacilles[4]. Ce sont des bactéries oxydase négatives (à quelques exceptions rares) et majoritairement catalase positives. La plupart de ces bactéries peuvent réduire le nitrate en nitrite à l'exception de quelques souches de Yersinia, d'Erwinia et de Saccharobacter fermentatus[5]. Certaines espèces sont mobiles par des flagelles péritricheux bien que certaines ne soient pas mobiles[6]. Des acides et des gaz peuvent être observés durant la fermentation sur le D-Glucose, d'autres glucides (carbohydrates) ou des alcools polyhydroxyliques[5], comme le mannitol.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2016, les bactéries de l'ordre des Enterobacterales sont des bactéries Gram-négatives, anaérobies facultatives, non-sporulantes. Ces bactéries ont la forme de bacilles. Ce sont des bactéries oxydase négatives (à quelques exceptions rares) et majoritairement catalase positives. La plupart de ces bactéries peuvent réduire le nitrate en nitrite à l'exception de quelques souches de Yersinia, d'Erwinia et de Saccharobacter fermentatus. Certaines espèces sont mobiles par des flagelles péritricheux bien que certaines ne soient pas mobiles. Des acides et des gaz peuvent être observés durant la fermentation sur le D-Glucose, d'autres glucides (carbohydrates) ou des alcools polyhydroxyliques, comme le mannitol.
 </t>
         </is>
       </c>
@@ -574,15 +590,11 @@
           <t>Taxonomie et nomenclature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Enterobacterales (nom validement publié[1]) anciennement Enterobacteriales (nom non validement publié[2]) sont un ordre de bactéries à gram négatif, appartenant à la classe des Gammaproteobacteria et au phylum des Pseudomonadota (anciennement Proteobacteria)[3],[1].
-Enterobacteriales (2005-2016)
-L'ordre Enterobacterales a été proposé en 2005 sous le nom "Enterobacteriales". Cependant, le nom Enterobacteriales n'a pas été validé selon les règles de la nomenclature bactérienne, il n'avait donc pas de statut dans la nomenclature, le nom a donc été écrit entre parenthèses.
-Enterobacteriales était un ordre monotypique, ne contenant que la famille des Enterobacteriaceae, et partageait son genre type Escherichia[7],[8],[9]. L'ordre contenait un grand groupe diversifié d'espèces, occupant des niches écologiques distinctes et possédant une variété de caractéristiques biochimiques[10]. De nombreux genres de l'ordre ont des impacts significatifs sur l'activité humaine, tels que les espèces pathogènes Escherichia coli, Salmonella enterica et Yersinia pestis, ainsi que des phytopathogènes nuisibles à l'agriculture tels que les membres des genres Dickeya, Pectobacterium, Brenneria, Erwinia et Pantoea. Le grand nombre d'espèces ainsi que la gamme de différentes caractéristiques biochimiques ont rendu la description de l'ordre et de ses sous-groupes extrêmement difficile[11]. L'attribution et la classification de cet ordre reposaient en grande partie sur les séquences du génome d'ARNr 16S, qui sont connues pour avoir un faible pouvoir discriminatoire et donner des résultats différents selon l'algorithme et la souche d'organisme utilisés[12]. De plus, ces analyses ont montré que les 'Enterobacteriales' présentaient une ramification polyphylétique, avec des sous-groupes distincts.
-Enterobacterales (depuis 2016)
-En 2016, il a été proposé de reclasser Enterobacteriales en Enterobacterales[13], et le genre type a été changé en Enterobacter conformément au Code international de nomenclature des procaryotes[14]. En outre, plusieurs nouvelles familles au sein de l'ordre Enterobacterales ont été proposées, composées d'espèces qui étaient auparavant membres de la famille Enterobacteriaceae sur la base de groupements trouvés dans des arbres phylogénétiques construits sur la base de génomes conservés, de séquences d'ARNr 16S et d'analyses de séquences multi-locus ainsi que d'analyses indépendantes. marqueurs moléculaires (indels de signature conservés)[4].
-En 2021, l'ordre Enterobacterales contient 7 familles validement publiées (Budviciaceae, Enterobacteriaceae, Erwiniaceae, Hafniaceae, Morganellaceae, Pectobacteriaceae et Yersiniaceae)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Enterobacterales (nom validement publié) anciennement Enterobacteriales (nom non validement publié) sont un ordre de bactéries à gram négatif, appartenant à la classe des Gammaproteobacteria et au phylum des Pseudomonadota (anciennement Proteobacteria),.
 </t>
         </is>
       </c>
@@ -608,13 +620,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Signatures moléculaires</t>
+          <t>Taxonomie et nomenclature</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les analyses de séquences génomiques d'espèces d'Enterobacterales ont identifié cinq indels de signature conservés (CSI) pour cet ordre dans les protéines peptide ABC transporteur perméase, facteur d'élongation P-like protéine YeiP, L-arabinose isomérase, pyrophosphatase et une protéine hypothétique, qui dans la plupart des cas sont exclusivement partagés par tous ou la plupart des membres de cet ordre[4].
-Ces CSI fournissent un moyen moléculaire de délimiter cet ordre des autres Gammaproteobacteria et soutiennent la nature monophylétique de l'ordre des Enterobacterales.
+          <t>Enterobacteriales (2005-2016)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre Enterobacterales a été proposé en 2005 sous le nom "Enterobacteriales". Cependant, le nom Enterobacteriales n'a pas été validé selon les règles de la nomenclature bactérienne, il n'avait donc pas de statut dans la nomenclature, le nom a donc été écrit entre parenthèses.
+Enterobacteriales était un ordre monotypique, ne contenant que la famille des Enterobacteriaceae, et partageait son genre type Escherichia. L'ordre contenait un grand groupe diversifié d'espèces, occupant des niches écologiques distinctes et possédant une variété de caractéristiques biochimiques. De nombreux genres de l'ordre ont des impacts significatifs sur l'activité humaine, tels que les espèces pathogènes Escherichia coli, Salmonella enterica et Yersinia pestis, ainsi que des phytopathogènes nuisibles à l'agriculture tels que les membres des genres Dickeya, Pectobacterium, Brenneria, Erwinia et Pantoea. Le grand nombre d'espèces ainsi que la gamme de différentes caractéristiques biochimiques ont rendu la description de l'ordre et de ses sous-groupes extrêmement difficile. L'attribution et la classification de cet ordre reposaient en grande partie sur les séquences du génome d'ARNr 16S, qui sont connues pour avoir un faible pouvoir discriminatoire et donner des résultats différents selon l'algorithme et la souche d'organisme utilisés. De plus, ces analyses ont montré que les 'Enterobacteriales' présentaient une ramification polyphylétique, avec des sous-groupes distincts.
 </t>
         </is>
       </c>
@@ -640,13 +658,90 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Taxonomie et nomenclature</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Enterobacterales (depuis 2016)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, il a été proposé de reclasser Enterobacteriales en Enterobacterales, et le genre type a été changé en Enterobacter conformément au Code international de nomenclature des procaryotes. En outre, plusieurs nouvelles familles au sein de l'ordre Enterobacterales ont été proposées, composées d'espèces qui étaient auparavant membres de la famille Enterobacteriaceae sur la base de groupements trouvés dans des arbres phylogénétiques construits sur la base de génomes conservés, de séquences d'ARNr 16S et d'analyses de séquences multi-locus ainsi que d'analyses indépendantes. marqueurs moléculaires (indels de signature conservés).
+En 2021, l'ordre Enterobacterales contient 7 familles validement publiées (Budviciaceae, Enterobacteriaceae, Erwiniaceae, Hafniaceae, Morganellaceae, Pectobacteriaceae et Yersiniaceae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Signatures moléculaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses de séquences génomiques d'espèces d'Enterobacterales ont identifié cinq indels de signature conservés (CSI) pour cet ordre dans les protéines peptide ABC transporteur perméase, facteur d'élongation P-like protéine YeiP, L-arabinose isomérase, pyrophosphatase et une protéine hypothétique, qui dans la plupart des cas sont exclusivement partagés par tous ou la plupart des membres de cet ordre.
+Ces CSI fournissent un moyen moléculaire de délimiter cet ordre des autres Gammaproteobacteria et soutiennent la nature monophylétique de l'ordre des Enterobacterales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genres validement publiés
-Les genres suivants ont été valablement publiés, ils sont donc "inclus dans la Nomenclature". L'année où le genre a été proposé est indiquée entre parenthèses après le nom du genre
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Genres validement publiés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres suivants ont été valablement publiés, ils sont donc "inclus dans la Nomenclature". L'année où le genre a été proposé est indiquée entre parenthèses après le nom du genre
 Acerihabitans (2021)
 Arsenophonus (1991)
 Biostraticola (2008)
@@ -723,7 +818,43 @@
 Xenorhabdus (1979)
 Yersinia (1944)
 Yokenella (1985)
-Candidatus genera
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Candidatus genera</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 "Candidatus Annandia"
 "Candidatus Arocatia"
 "Candidatus Aschnera"
@@ -757,7 +888,43 @@
 "Candidatus Stammerula"
 "Candidatus Tachikawaea"
 "Candidatus Westeberhardia"
-Proposé, mais n'a pas obtenu de statut dans la nomenclature
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Proposé, mais n'a pas obtenu de statut dans la nomenclature</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aquamonas (2009)
 Aranicola (1997)
 Atlantibacter (2016)
@@ -770,45 +937,116 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Enterobacterales</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Voir l'article Enterobactéries
-Selon la LPSN[1]
-Budviciaceae Adeolu et al. 2016
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir l'article Enterobactéries
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Selon la LPSN[1]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Budviciaceae Adeolu et al. 2016
 Enterobacteriaceae Rahn 1937
 Erwiniaceae Adeolu et al. 2016
 Hafniaceae Adeolu et al. 2016
 Morganellaceae Adeolu et al. 2016
 Pectobacteriaceae Adeolu et al. 2016
-Yersiniaceae Adeolu et al. 2016
-Selon d'autres sources
-Selon BioLib                    (30 novembre 2020)[15], Catalogue of Life                                   (30 novembre 2020)[16], ITIS      (30 novembre 2020)[17] et World Register of Marine Species                               (30 novembre 2020)[18] :
+Yersiniaceae Adeolu et al. 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Selon d'autres sources</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (30 novembre 2020), Catalogue of Life                                   (30 novembre 2020), ITIS      (30 novembre 2020) et World Register of Marine Species                               (30 novembre 2020) :
 famille des Enterobacteriaceae Rahn, 1937
-Selon NCBI  (30 novembre 2020)[19] :
+Selon NCBI  (30 novembre 2020) :
 famille des Budviciaceae Adeolu &amp; al. 2016
 famille des Enterobacteriaceae Enterobacteraceae (ex Lapage 1979) Lapage 1982
 famille des Erwiniaceae Adeolu &amp; al. 2016
@@ -817,39 +1055,43 @@
 famille des Pectobacteriaceae Adeolu &amp; al. 2016
 famille des Thorselliaceae Kämpfer &amp; al. 2015
 famille des Yersiniaceae Adeolu &amp; al. 2016
-Enterobacterales incertae sedis
-Tableau récapitulatif</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Enterobacterales</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+Enterobacterales incertae sedis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Écologie et pathogénicité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Habitat
-Les Entérobactérales, comme de nombreuses bactéries, peuvent être classées en saprophytes, vivants indépendamment d'autres êtres vivants, commensales, vivant sur ou dans un autre être vivant (l'hôte) en bonne intelligence ou pathogènes quand elles déclenchent des troubles chez l'hôte colonisé. Dans certains cas, les commensales sont dites mutualistes ou symbiotes quand l'association est en bénéfice mutuel).
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Entérobactérales, comme de nombreuses bactéries, peuvent être classées en saprophytes, vivants indépendamment d'autres êtres vivants, commensales, vivant sur ou dans un autre être vivant (l'hôte) en bonne intelligence ou pathogènes quand elles déclenchent des troubles chez l'hôte colonisé. Dans certains cas, les commensales sont dites mutualistes ou symbiotes quand l'association est en bénéfice mutuel).
 Mais une bactérie peut évoluer entre ces trois états : Salmonella Typhi peut être commensale chez certains individus (porteurs asymtomatiques), devient pathogène quand son pouvoir pathogène s'exprime en provoquant notamment une diarrhée et éventuellement une septicémie, mais est saprophyte dans la nature ou simplement sur les milieux de culture utilisés pour le diagnostic.
 Les Entérobactérales sont très répandues, certaines ne sont retrouvées que dans l'environnement, en particulier dans les milieux humides. La plupart des genres comportent des espèces pathogènes qui provoquent des troubles dont la gravité varie énormément d'une souche à l'autre. Certaines sont responsables de maladies des végétaux (phytopathogène) et d'autres pour l'animal.
 Ce sont des bactéries très ubiquitaires, c'est-à-dire qu'on peut les retrouver dans de nombreux écosystèmes :
@@ -857,12 +1099,82 @@
 d'autres sont phytopathogènes : Erwinia, Pantoea ;
 mais nombre d'espèces sont commensales, isolées dans l'intestin de l'homme et des animaux, d'où le nom d'entérobactéries.
 Elles se multiplient généralement aussi bien chez un hôte que dans l'environnement bien que certaines espèces soient plus adaptées à l'un ou l'autre de ces habitats.
-Les entérobactérales commensales
-Elles sont les hôtes de l'homme et des animaux chez lesquels elles résident principalement au niveau de l'intestin, d'où leur dénomination. On peut cependant les retrouver dans la cavité buccale, les régions humides de la peau en particulier le périnée, les fosses nasales et les voies génitales féminines dans lesquelles elles peuvent constituer une flore transitaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Écologie et pathogénicité</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les entérobactérales commensales</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont les hôtes de l'homme et des animaux chez lesquels elles résident principalement au niveau de l'intestin, d'où leur dénomination. On peut cependant les retrouver dans la cavité buccale, les régions humides de la peau en particulier le périnée, les fosses nasales et les voies génitales féminines dans lesquelles elles peuvent constituer une flore transitaire.
 Dans l'intestin, elles représentent une fraction très importante de la flore aérobie de l'intestin qui est elle-même très réduite (de l'ordre de 1 % de la flore totale). Elles se retrouvent en grand nombre au niveau du côlon (du cæcum au rectum), elle contribuent à la dégradation des résidus alimentaires et à la production de gaz intestinaux ; on parle de flore de fermentation.
 L'espèce Escherichia coli y joue un rôle prépondérant en raison de sa présence constante et de sa large prédominance sur les autres espèces : elle constituerait 80 % dans la flore aérobie avec une concentration avoisinant les 108 E. coli / g de selles terminales. Cette flore est toutefois très minoritaire par rapport à la flore anaérobie stricte. D'autres espèces ont une présence moins marquée tel que Proteus et Klebsiella ainsi que Citrobacter, Hafnia, Providencia, Enterobacter...
-Pathogénicité chez l'homme et les animaux
-Le pouvoir pathogène dépend lui de nombreux facteurs : des moyens d'attaque de la bactérie, les facteurs de pathogénicité et des moyens de défense de l'hôte, l'immunité (innée, spécifique, adaptative). C'est pourquoi il n'est pas possible d'affirmer qu'une bactérie pathogène provoque la maladie chez tous ceux qui seront contaminés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Écologie et pathogénicité</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Pathogénicité chez l'homme et les animaux</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Le pouvoir pathogène dépend lui de nombreux facteurs : des moyens d'attaque de la bactérie, les facteurs de pathogénicité et des moyens de défense de l'hôte, l'immunité (innée, spécifique, adaptative). C'est pourquoi il n'est pas possible d'affirmer qu'une bactérie pathogène provoque la maladie chez tous ceux qui seront contaminés.
 Sont distingués, en fonction de leur dangerosité,
 des bactéries pathogènes strictes qui déclenchent la maladie, le plus souvent, après la contamination,
 des bactéries pathogènes opportunistes qui profitent des failles du "terrain" de l'hôte pour provoquer la maladie
@@ -878,38 +1190,74 @@
 des toxines, en particulier des cytotoxines comme celle des Shigella-EHEC, des toxines cytotoniques cause des diarrhées comme chez les ETEC (toxine retrouvée aussi chez Vibrio cholerae cause du choléra), le LPS cause du choc septique chez certains individus le plus souvent fragiles…
 des facteurs d'adhésion nombreux et variés
 des sidérophores, molécules de captation du fer ionique
-…
-Pathogénicité chez les plantes
-Certaines Entérobactérales sont responsables d’infections chez les plantes. Ces espèces sont dites phytopathogènes comme Erwinia responsable du feu bactérien, Pantoea.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Enterobacterales</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+…</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Écologie et pathogénicité</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Pathogénicité chez les plantes</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines Entérobactérales sont responsables d’infections chez les plantes. Ces espèces sont dites phytopathogènes comme Erwinia responsable du feu bactérien, Pantoea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Caractères bactériologiques et identification</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous ces microorganismes ont une morphologie identique : bâtonnets Gram -, de taille et de forme variable. Certains possèdent une capsule. Une définition des entérobactéries repose sur les critères suivants : bacilles Gram négatifs, immobiles ou mobiles par ciliature péritriche, aérobies - anaérobies facultatifs, attaquant le glucose par voie oxydative et/ou fermentaire, dépourvus d'oxydase et réduisant les nitrates en nitrites. Cette définition doit être prise avec relativité, d'une part en raison d'exceptions (réduction nitrates en diazote, ciliature polaire…), d'autre part car c'est une définition à l'ancienne ne reposant pas sur des critères génétiques qui sont, aujourd'hui, les seuls admis.
 Les genres et les espèces sont différenciés sur la base de caractères biochimiques (et génétiques) étudiés sur des milieux rassemblés dans la « galerie d'identification » (Fermentation des sucres ; décarboxylation d'acides aminés ; production d'indole, d'acétoïne (butanediol), d'H2S ; désamination de la phénylalanine ou du tryptophane; utilisation du citrate comme seule source de carbone, etc.). Certains caractères biochimiques particuliers permettent de définir des biotypes à l'intérieur d'une espèce, par exemple Salmonella, biotype xylose + et biotype xylose - ; cette distinction peut avoir de l'intérêt sur le plan épidémiologique.
@@ -920,31 +1268,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Enterobacterales</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Caractères antigéniques</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les Entérobactérales possèdent un antigène commun appelé ECA (de l'anglais : Enterobacterial Common Antigen) ou « antigène de Kunin » du nom de son découvreur dans les années 1960. Cet antigène a été caractérisé par des travaux ultérieurs qui ont notamment établi sa nature polysaccharidique (polyosidique) et le détail de sa structure.
 La paroi des Entérobactéries contient aussi un complexe lipopolysaccharidique (LPS) dont la partie lipidique correspond à l'endotoxine, identique chez tous ces germes et responsable d'une certaine pathogénicité vasculaire et immunitaire (vasodilatation, altération de la perméabilité, collapsus circulatoire). La fraction polysaccharidique (polyosidique) est antigénique et correspond à l'antigène O (ou antigène somatique) dont la spécificité varie selon les clones. Cet antigène résiste à la chaleur et à l'éthanol.
@@ -955,75 +1305,155 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Enterobacterales</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Traitement des infections</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antibiotiques
-Outre la résistance naturelle aux antibiotiques actifs sur les Gram positifs (pénicilline G, macrolides), les entérobactéries présentent fréquemment une résistance aux AB à large spectre auxquels elles sont normalement sensibles. Cette résistance est conditionnée par la présence de plasmides (ADN extra-chromosomique) porteurs de caractères de résistances multiples et transférables à d'autres bactéries Gram négatives par conjugaison bactérienne.
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Antibiotiques</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre la résistance naturelle aux antibiotiques actifs sur les Gram positifs (pénicilline G, macrolides), les entérobactéries présentent fréquemment une résistance aux AB à large spectre auxquels elles sont normalement sensibles. Cette résistance est conditionnée par la présence de plasmides (ADN extra-chromosomique) porteurs de caractères de résistances multiples et transférables à d'autres bactéries Gram négatives par conjugaison bactérienne.
 En 2016, pour la première fois, chez des animaux d'élevage agricole, une espèce Enterobactérales a été trouvée porteuse d'un gène de résistance au carbapénème (aux États-Unis). Ce gène étant facilement transmissible, il est à craindre que cette résistance puisse se diffuser.
 La détermination de la sensibilité par l'antibiogramme est donc indispensable, les souches multirésistantes étant de plus en plus fréquentes.
-Bactériophages
-Il faut mentionner la lutte au moyen de bactériophages spécifiques des bactéries de la famille des Enterobacteriales comme Erwinia. La firme OmniLytics a par exemple fait approuver par l'EPA (États-Unis) le produit AgriPhage qui est actif contre la plupart des bactéries nuisibles en agriculture et horticulture, comme cela est mentionné à la page 168 du livre du microbiologiste Dr Alain Dublanchet.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Enterobacterales</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Microbiologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Traitement des infections</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bactériophages</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut mentionner la lutte au moyen de bactériophages spécifiques des bactéries de la famille des Enterobacteriales comme Erwinia. La firme OmniLytics a par exemple fait approuver par l'EPA (États-Unis) le produit AgriPhage qui est actif contre la plupart des bactéries nuisibles en agriculture et horticulture, comme cela est mentionné à la page 168 du livre du microbiologiste Dr Alain Dublanchet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Utilisation en microbiologie alimentaire</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>indicateur de contamination fécale
-L'habitat fréquent des Enterobactérales dans l'intestin conduit à les utiliser comme signe ou indicateur de contamination fécale pouvant signifier la présence de pathogènes intestinaux comme les Salmonella, de nombreux parasites…
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>indicateur de contamination fécale</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'habitat fréquent des Enterobactérales dans l'intestin conduit à les utiliser comme signe ou indicateur de contamination fécale pouvant signifier la présence de pathogènes intestinaux comme les Salmonella, de nombreux parasites…
 L'espèce fondamentale utilisée est Escherichia coli car elle est quasiment toujours présente dans l'intestin des mammifères à concentration élevée. Elle semble, de plus, survivre assez difficilement à l'extérieur. La présence à concentration élevée, variable selon les aliments analysés, de cette bactérie signe donc une contamination fécale.
 Les propriétés utilisées pour le dénombrement sont l'utilisation (fermentation/respiration) du lactose à 44 °C, la production d'indole à 44 °C, et la culture sur des milieux contenant du désoxycholate, inhibiteur de la plupart des Gram + (sauf les Enterococcus).
 Le dénombrement plus large des Coliformes, Enterobactérales utilisant le lactose dont fait partie E. coli, est aussi un moyen d'apprécier une contamination fécale. Sa moindre spécificité le rend moins fiable.
-Recherche/dénombrement de pathogènes
-Sont recherchés comme pathogènes dans la plupart des aliments, y compris l'eau :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Enterobacterales</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enterobacterales</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Utilisation en microbiologie alimentaire</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Recherche/dénombrement de pathogènes</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sont recherchés comme pathogènes dans la plupart des aliments, y compris l'eau :
 de façon systématique : les Salmonella
 de façon ciblée : les EHEC, Cronobacter (laits infantiles en poudre), Yersinia enterocolitica…</t>
         </is>
